--- a/BalanceSheet/SNAP_bal.xlsx
+++ b/BalanceSheet/SNAP_bal.xlsx
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>56505000.0</v>
+        <v>126000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>8926000.0</v>
+        <v>72000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3435000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2279000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>5734000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>46886000.0</v>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-2628000.0</v>
+        <v>12000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>-1186000.0</v>
@@ -3389,7 +3389,7 @@
         <v>-849000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>-876000000.0</v>
+        <v>-1179029000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>-1330614000.0</v>
@@ -3468,7 +3468,7 @@
         <v>1233000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1237000000.0</v>
+        <v>933776000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>930116000.0</v>
